--- a/bots/crawl_ch/output/bread_coop_2023-01-22.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-22.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -2433,45 +2433,45 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4913406</t>
+          <t>3021010</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Butterzopf</t>
+          <t>Old El Paso Flour Tortillas 8 Stück</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/butterzopf/p/4913406</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-flour-tortillas-8-stueck/p/3021010</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="E29" t="n">
         <v>4.5</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.70/100g</t>
+          <t>1.40/100g</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2491,56 +2491,56 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Butterzopf 4.90 Schweizer Franken</t>
+          <t>Old El Paso Flour Tortillas 8 Stück 4.55 Schweizer Franken</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3021010</t>
+          <t>5908951</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Old El Paso Flour Tortillas 8 Stück</t>
+          <t>Rob &amp;amp; Lissy Mega Hamburger-Buns mit Sesam</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-flour-tortillas-8-stueck/p/3021010</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/rob-lissy-mega-hamburger-buns-mit-sesam/p/5908951</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="E30" t="n">
         <v>4.5</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1.40/100g</t>
+          <t>0.88/100g</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2560,39 +2560,43 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Old El Paso Flour Tortillas 8 Stück 4.55 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
+          <t>Rob &amp;amp; Lissy Mega Hamburger-Buns mit Sesam 2.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5908951</t>
+          <t>4913406</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Mega Hamburger-Buns mit Sesam</t>
+          <t>Butterzopf</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/rob-lissy-mega-hamburger-buns-mit-sesam/p/5908951</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/butterzopf/p/4913406</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E31" t="n">
         <v>4.5</v>
@@ -2604,12 +2608,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.88/100g</t>
+          <t>0.70/100g</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2619,7 +2623,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2629,22 +2633,18 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Mega Hamburger-Buns mit Sesam 2.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Butterzopf 4.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -4068,31 +4068,31 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>4287115</t>
+          <t>3390905</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pagnolbrot hell</t>
+          <t>Betty Bossi Naturaplan Bio Pizzateig ausgewallt 28x38cm</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-pagnolbrot-hell/p/4287115</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-naturaplan-bio-pizzateig-ausgewallt-28x38cm/p/3390905</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E52" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -4101,12 +4101,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>0.80/100g</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4126,46 +4126,46 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pagnolbrot hell 3.30 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Pizzateig ausgewallt 28x38cm 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3390905</t>
+          <t>4287115</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig ausgewallt 28x38cm</t>
+          <t>Naturaplan Bio Pagnolbrot hell</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-naturaplan-bio-pizzateig-ausgewallt-28x38cm/p/3390905</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-pagnolbrot-hell/p/4287115</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -4174,12 +4174,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.80/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4199,22 +4199,22 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig ausgewallt 28x38cm 4.40 Schweizer Franken</t>
+          <t>Naturaplan Bio Pagnolbrot hell 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -4575,7 +4575,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -5516,45 +5516,45 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>4035521</t>
+          <t>3823516</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Pariserbrot IP-Suisse</t>
+          <t>Old El Paso Vollkorn Tortillas 6 Stück</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/pariserbrot-ip-suisse/p/4035521</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-vollkorn-tortillas-6-stueck/p/3823516</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.70/100g</t>
+          <t>1.60/100g</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5574,60 +5574,56 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Pariserbrot IP-Suisse 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Old El Paso Vollkorn Tortillas 6 Stück 5.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3823516</t>
+          <t>4035521</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Old El Paso Vollkorn Tortillas 6 Stück</t>
+          <t>Pariserbrot IP-Suisse</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-vollkorn-tortillas-6-stueck/p/3823516</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/pariserbrot-ip-suisse/p/4035521</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="E73" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1.60/100g</t>
+          <t>0.70/100g</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5637,7 +5633,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5647,18 +5643,22 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Old El Paso Vollkorn Tortillas 6 Stück 5.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr"/>
+          <t>Pariserbrot IP-Suisse 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -6011,31 +6011,31 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>4454371</t>
+          <t>4136769</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Vollkornbrot</t>
+          <t>JaMaDu Fairtrade Apfel Reiswaffeln</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-vollkornbrot/p/4454371</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/jamadu-fairtrade-apfel-reiswaffeln/p/4136769</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E79" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -6044,12 +6044,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>3.25/100g</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6059,7 +6059,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6069,46 +6069,46 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Vollkornbrot 2.50 Schweizer Franken</t>
+          <t>JaMaDu Fairtrade Apfel Reiswaffeln 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>4136769</t>
+          <t>4454371</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>JaMaDu Fairtrade Apfel Reiswaffeln</t>
+          <t>Naturaplan Bio Vollkornbrot</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/jamadu-fairtrade-apfel-reiswaffeln/p/4136769</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-vollkornbrot/p/4454371</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -6117,12 +6117,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>3.25/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6142,22 +6142,22 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>JaMaDu Fairtrade Apfel Reiswaffeln 1.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Vollkornbrot 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -6652,7 +6652,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -6725,7 +6725,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6936,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -7374,7 +7374,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -7589,7 +7589,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -7800,7 +7800,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -7869,7 +7869,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -7938,7 +7938,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8076,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -8360,7 +8360,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -8433,7 +8433,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -8506,7 +8506,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -8575,7 +8575,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -8644,7 +8644,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -8713,7 +8713,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -8786,7 +8786,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -8859,7 +8859,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -8928,7 +8928,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -9074,7 +9074,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -9147,7 +9147,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -9220,45 +9220,45 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>6737607</t>
+          <t>6384092</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Semmeli</t>
+          <t>Bauli Croissant Chocolate 6 Stück</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-semmeli/p/6737607</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-chocolate-6-stueck/p/6384092</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E124" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>1.19/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9268,7 +9268,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -9278,60 +9278,56 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Semmeli 0.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Bauli Croissant Chocolate 6 Stück 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>6384092</t>
+          <t>6737607</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Bauli Croissant Chocolate 6 Stück</t>
+          <t>Naturaplan Bio Semmeli</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-chocolate-6-stueck/p/6384092</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-semmeli/p/6737607</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E125" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>1.19/100g</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9341,7 +9337,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -9351,18 +9347,22 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Bauli Croissant Chocolate 6 Stück 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr"/>
+          <t>Naturaplan Bio Semmeli 0.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -9435,7 +9435,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -9504,7 +9504,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -9573,7 +9573,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -9646,7 +9646,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -9715,7 +9715,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -9788,7 +9788,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -9930,7 +9930,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -10003,7 +10003,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -10072,7 +10072,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -10145,7 +10145,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -10214,7 +10214,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -10283,7 +10283,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -10425,7 +10425,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -10494,45 +10494,45 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>4283951</t>
+          <t>4886674</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mehrkornbrötli</t>
+          <t>Dar-Vida Cracker Ur-Dinkel</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-mehrkornbroetli/p/4283951</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-ur-dinkel/p/4886674</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E142" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>1.19/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10542,7 +10542,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -10552,60 +10552,56 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mehrkornbrötli 0.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Dar-Vida Cracker Ur-Dinkel 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>4886674</t>
+          <t>4283951</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Ur-Dinkel</t>
+          <t>Naturaplan Bio Mehrkornbrötli</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-ur-dinkel/p/4886674</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-mehrkornbroetli/p/4283951</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E143" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>1.19/100g</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10615,7 +10611,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -10625,18 +10621,22 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Ur-Dinkel 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N143" t="inlineStr"/>
+          <t>Naturaplan Bio Mehrkornbrötli 0.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -10705,7 +10705,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -10778,7 +10778,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -10847,45 +10847,45 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>6797336</t>
+          <t>6820609</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS Rings Mix 4 Stück</t>
+          <t>Bio Frischback Dinkel Vollkornbrötli</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/dunkin-donuts-rings-mix-4-stueck/p/6797336</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/bio-frischback-dinkel-vollkornbroetli/p/6820609</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E147" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>3.11/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10895,7 +10895,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -10905,56 +10905,60 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS Rings Mix 4 Stück 8.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr"/>
+          <t>Bio Frischback Dinkel Vollkornbrötli 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>6820609</t>
+          <t>6797336</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Bio Frischback Dinkel Vollkornbrötli</t>
+          <t>DUNKIN' DONUTS Rings Mix 4 Stück</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/bio-frischback-dinkel-vollkornbroetli/p/6820609</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/dunkin-donuts-rings-mix-4-stueck/p/6797336</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E148" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DUNKIN' DONUTS</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>3.11/100g</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -10964,7 +10968,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -10974,22 +10978,18 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>Bio Frischback Dinkel Vollkornbrötli 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>DUNKIN' DONUTS Rings Mix 4 Stück 8.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -11058,7 +11058,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -11127,7 +11127,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -11200,7 +11200,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -11273,7 +11273,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -11342,7 +11342,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -11411,7 +11411,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -11484,7 +11484,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -11553,7 +11553,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -11695,7 +11695,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -11975,7 +11975,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -12048,7 +12048,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -12190,7 +12190,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -12263,7 +12263,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -12332,31 +12332,31 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>5671230</t>
+          <t>6338745</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Betty Bossi Pizzateig Ø28cm</t>
+          <t>JaMaDu Jungle Cracker Apfel Banane</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pizzateig-28cm/p/5671230</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-apfel-banane/p/6338745</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E168" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -12365,12 +12365,12 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>2.46/100g</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12380,7 +12380,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -12390,46 +12390,42 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>Betty Bossi Pizzateig Ø28cm 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>JaMaDu Jungle Cracker Apfel Banane 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>6338745</t>
+          <t>5671230</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Apfel Banane</t>
+          <t>Betty Bossi Pizzateig Ø28cm</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-apfel-banane/p/6338745</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pizzateig-28cm/p/5671230</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E169" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -12438,12 +12434,12 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2.46/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12453,7 +12449,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -12463,18 +12459,22 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Apfel Banane 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N169" t="inlineStr"/>
+          <t>Betty Bossi Pizzateig Ø28cm 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -12547,7 +12547,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -12620,7 +12620,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -12689,7 +12689,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -12762,7 +12762,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -12831,7 +12831,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -12904,7 +12904,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -12973,7 +12973,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -13046,45 +13046,45 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>6589691</t>
+          <t>6141017</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggenbrot</t>
+          <t>Bonne Maman Madeleine au Citron 7 Stück</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/prix-garantie-roggenbrot/p/6589691</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-au-citron-7-stueck/p/6141017</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>0.44/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13094,7 +13094,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13104,60 +13104,56 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggenbrot 2.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Madeleine au Citron 7 Stück 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>6141017</t>
+          <t>6589691</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine au Citron 7 Stück</t>
+          <t>Prix Garantie Roggenbrot</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-au-citron-7-stueck/p/6141017</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/prix-garantie-roggenbrot/p/6589691</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E179" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>0.44/100g</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13167,7 +13163,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13177,18 +13173,22 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine au Citron 7 Stück 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N179" t="inlineStr"/>
+          <t>Prix Garantie Roggenbrot 2.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -13257,7 +13257,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13326,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -13399,7 +13399,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -13472,7 +13472,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -13618,7 +13618,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -13687,7 +13687,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -13760,7 +13760,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -13829,7 +13829,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -13902,7 +13902,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -13971,7 +13971,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -14040,7 +14040,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -14109,7 +14109,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -14182,45 +14182,45 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>5650918</t>
+          <t>5909397</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig Rustica rund ausgewallt Ø32cm</t>
+          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-rustica-rund-ausgewallt-32cm/p/5650918</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-naturaplan-bio-cracker-kuerbiskerne/p/5909397</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E194" t="n">
         <v>4.5</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>1.48/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14230,7 +14230,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14240,60 +14240,56 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig Rustica rund ausgewallt Ø32cm 3.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N194" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>5909397</t>
+          <t>5650918</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne</t>
+          <t>Leisi Blätterteig Rustica rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-naturaplan-bio-cracker-kuerbiskerne/p/5909397</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-rustica-rund-ausgewallt-32cm/p/5650918</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E195" t="n">
         <v>4.5</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>1.48/100g</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14303,7 +14299,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -14313,18 +14309,22 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N195" t="inlineStr"/>
+          <t>Leisi Blätterteig Rustica rund ausgewallt Ø32cm 3.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -14393,7 +14393,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -14466,7 +14466,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -14535,7 +14535,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -14604,7 +14604,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -14823,31 +14823,31 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>6668613</t>
+          <t>6734420</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig eckig</t>
+          <t>Reiswaffeln Vollmilch-Kokos</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-eckig/p/6668613</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/reiswaffeln-vollmilch-kokos/p/6734420</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -14856,12 +14856,12 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>0.42/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14871,7 +14871,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -14881,46 +14881,46 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig eckig 1.30 Schweizer Franken</t>
+          <t>Reiswaffeln Vollmilch-Kokos 1.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>6734420</t>
+          <t>6668613</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Reiswaffeln Vollmilch-Kokos</t>
+          <t>Prix Garantie Kuchenteig eckig</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/reiswaffeln-vollmilch-kokos/p/6734420</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-eckig/p/6668613</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E204" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -14929,12 +14929,12 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>0.42/100g</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -14944,7 +14944,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -14954,22 +14954,22 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>Reiswaffeln Vollmilch-Kokos 1.70 Schweizer Franken</t>
+          <t>Prix Garantie Kuchenteig eckig 1.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -15038,7 +15038,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -15107,7 +15107,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -15253,45 +15253,45 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>6099147</t>
+          <t>6629227</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Aprikosen-Törtli</t>
+          <t>Old el Paso Tortilla Pockets 8 Stück</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosen-toertli/p/6099147</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-pockets-8-stueck/p/6629227</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E209" t="n">
         <v>4.5</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15301,7 +15301,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -15311,56 +15311,56 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>Aprikosen-Törtli 1.40 Schweizer Franken</t>
+          <t>Old el Paso Tortilla Pockets 8 Stück 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>6629227</t>
+          <t>3734986</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla Pockets 8 Stück</t>
+          <t>Mulino Bianco 5-Kornbrot mit Soja</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-pockets-8-stueck/p/6629227</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-5-kornbrot-mit-soja/p/3734986</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E210" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>0.60/100g</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15370,7 +15370,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -15380,56 +15380,56 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla Pockets 8 Stück 5.95 Schweizer Franken</t>
+          <t>Mulino Bianco 5-Kornbrot mit Soja 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>3734986</t>
+          <t>6345143</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Mulino Bianco 5-Kornbrot mit Soja</t>
+          <t>Dar-Vida Simply Sesame</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-5-kornbrot-mit-soja/p/3734986</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-simply-sesame/p/6345143</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>0.60/100g</t>
+          <t>2.25/100g</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15439,7 +15439,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -15449,56 +15449,56 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>Mulino Bianco 5-Kornbrot mit Soja 2.40 Schweizer Franken</t>
+          <t>Dar-Vida Simply Sesame 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>6345143</t>
+          <t>6099147</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Dar-Vida Simply Sesame</t>
+          <t>Aprikosen-Törtli</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-simply-sesame/p/6345143</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosen-toertli/p/6099147</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E212" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2.25/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15508,7 +15508,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -15518,18 +15518,18 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>Dar-Vida Simply Sesame 3.60 Schweizer Franken</t>
+          <t>Aprikosen-Törtli 1.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -15602,7 +15602,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -15675,7 +15675,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -15744,7 +15744,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -15890,7 +15890,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -15963,7 +15963,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -16032,7 +16032,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -16101,45 +16101,45 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>6797332</t>
+          <t>6564543</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS Strawberry 2 Stück</t>
+          <t>Country Cracker Käse</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/dunkin-donuts-strawberry-2-stueck/p/6797332</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E221" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>3.15/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16149,7 +16149,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -16159,56 +16159,56 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS Strawberry 2 Stück 4.60 Schweizer Franken</t>
+          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>6564543</t>
+          <t>6797332</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Country Cracker Käse</t>
+          <t>DUNKIN' DONUTS Strawberry 2 Stück</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/dunkin-donuts-strawberry-2-stueck/p/6797332</t>
         </is>
       </c>
       <c r="D222" t="n">
+        <v>13</v>
+      </c>
+      <c r="E222" t="n">
         <v>4</v>
       </c>
-      <c r="E222" t="n">
-        <v>5</v>
-      </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DUNKIN' DONUTS</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>3.15/100g</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16218,7 +16218,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -16228,18 +16228,18 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
+          <t>DUNKIN' DONUTS Strawberry 2 Stück 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -16312,7 +16312,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -16381,7 +16381,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -16454,7 +16454,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -16527,7 +16527,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -16596,7 +16596,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -16665,7 +16665,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -16738,7 +16738,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -16807,7 +16807,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -16876,31 +16876,31 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>3431131</t>
+          <t>6695031</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Betty Bossi Spitzbube 2x  80g</t>
+          <t>Prix Garantie Erdbeer Roulade</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-spitzbube/p/3431131</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-erdbeer-roulade/p/6695031</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E232" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -16909,12 +16909,12 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -16924,7 +16924,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -16939,37 +16939,37 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>Betty Bossi Spitzbube 2x  80g 4.40 Schweizer Franken</t>
+          <t>Prix Garantie Erdbeer Roulade 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>6695031</t>
+          <t>3431131</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdbeer Roulade</t>
+          <t>Betty Bossi Spitzbube 2x  80g</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-erdbeer-roulade/p/6695031</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-spitzbube/p/3431131</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E233" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -16978,12 +16978,12 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -16993,7 +16993,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -17008,13 +17008,13 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdbeer Roulade 2.60 Schweizer Franken</t>
+          <t>Betty Bossi Spitzbube 2x  80g 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -17083,7 +17083,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -17152,7 +17152,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -17225,7 +17225,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -17294,7 +17294,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -17363,7 +17363,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -17505,7 +17505,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -17578,7 +17578,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -17647,7 +17647,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -17720,7 +17720,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -17791,7 +17791,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -17864,7 +17864,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -17933,7 +17933,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -18006,7 +18006,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -18075,7 +18075,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -18144,7 +18144,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -18213,7 +18213,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -18286,7 +18286,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -18355,29 +18355,31 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>3431133</t>
+          <t>4144505</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Betty Bossi Vogelnestli 2x  100g</t>
+          <t>Pandorino</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-vogelnestli/p/3431133</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>13</v>
+      </c>
       <c r="E253" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -18386,12 +18388,12 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2.30/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18401,7 +18403,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -18411,42 +18413,40 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>Betty Bossi Vogelnestli 2x  100g 4.60 Schweizer Franken</t>
+          <t>Pandorino 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>4144505</t>
+          <t>3431133</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Pandorino</t>
+          <t>Betty Bossi Vogelnestli 2x  100g</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
-        </is>
-      </c>
-      <c r="D254" t="n">
-        <v>13</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-vogelnestli/p/3431133</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr"/>
       <c r="E254" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -18455,12 +18455,12 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>2.30/100g</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18480,18 +18480,18 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>Pandorino 1.60 Schweizer Franken</t>
+          <t>Betty Bossi Vogelnestli 2x  100g 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -18560,7 +18560,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -18629,7 +18629,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -18698,7 +18698,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -18767,7 +18767,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -18836,7 +18836,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -18905,7 +18905,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -18978,7 +18978,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -19051,7 +19051,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -19124,7 +19124,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -19197,7 +19197,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -19270,7 +19270,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -19339,7 +19339,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -19412,7 +19412,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -19485,7 +19485,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -19558,7 +19558,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -19631,7 +19631,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -19700,7 +19700,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -19773,7 +19773,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -19842,29 +19842,31 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>6832049</t>
+          <t>6629585</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren</t>
+          <t>Betty Bossi Marmor Cake</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt-erdbeeren/p/6832049</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-marmor-cake/p/6629585</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>7</v>
+      </c>
       <c r="E274" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -19873,12 +19875,12 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>1.91/100g</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -19888,7 +19890,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19898,46 +19900,40 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren - Online kein Bestand 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N274" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Marmor Cake 2.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>6629585</t>
+          <t>6832049</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Betty Bossi Marmor Cake</t>
+          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-marmor-cake/p/6629585</t>
-        </is>
-      </c>
-      <c r="D275" t="n">
-        <v>7</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt-erdbeeren/p/6832049</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr"/>
       <c r="E275" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -19946,12 +19942,12 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>1.91/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -19961,7 +19957,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19971,18 +19967,22 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>Betty Bossi Marmor Cake 2.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N275" t="inlineStr"/>
+          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren - Online kein Bestand 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -20051,7 +20051,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -20124,45 +20124,45 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>3938007</t>
+          <t>6726288</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>St Michel Madeleines</t>
+          <t>Karma Snack Linsen &amp;amp; Kichererbsen</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines/p/3938007</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/karma-snack-linsen-kichererbsen/p/6726288</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E278" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>2.79/100g</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20172,7 +20172,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20182,56 +20182,60 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N278" t="inlineStr"/>
+          <t>Karma Snack Linsen &amp;amp; Kichererbsen 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>6726288</t>
+          <t>3938007</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Karma Snack Linsen &amp;amp; Kichererbsen</t>
+          <t>St Michel Madeleines</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/karma-snack-linsen-kichererbsen/p/6726288</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines/p/3938007</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E279" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2.79/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20241,7 +20245,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20251,22 +20255,18 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>Karma Snack Linsen &amp;amp; Kichererbsen 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N279" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>St Michel Madeleines 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -20335,7 +20335,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -20404,7 +20404,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -20473,45 +20473,45 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>3041815</t>
+          <t>3454555</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G</t>
+          <t>Prix Garantie Gugelhopf</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-gugelhopf/p/3454555</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>1.68/100g</t>
+          <t>0.49/100g</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20521,7 +20521,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -20531,56 +20531,56 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
+          <t>Prix Garantie Gugelhopf 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>3454555</t>
+          <t>3041815</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Prix Garantie Gugelhopf</t>
+          <t>Hug Zwieback Original 250G</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-gugelhopf/p/3454555</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E284" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>0.49/100g</t>
+          <t>1.68/100g</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20590,7 +20590,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -20600,18 +20600,18 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>Prix Garantie Gugelhopf 1.95 Schweizer Franken</t>
+          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -20684,7 +20684,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -20751,7 +20751,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -20824,7 +20824,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -20897,7 +20897,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -20970,7 +20970,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -21039,7 +21039,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -21108,7 +21108,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -21175,7 +21175,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -21248,7 +21248,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -21321,7 +21321,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -21394,7 +21394,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -21467,45 +21467,45 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>4967195</t>
+          <t>4265298</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln</t>
+          <t>Naturaplan Bio Mini Haselnussrollen</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E297" t="n">
         <v>4.5</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>3.14/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21515,7 +21515,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -21530,51 +21530,51 @@
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>4265298</t>
+          <t>6010377</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen</t>
+          <t>Cailler Schoggi Branchli Cake</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/cailler-schoggi-branchli-cake/p/6010377</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E298" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Cailler</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21584,7 +21584,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -21599,51 +21599,51 @@
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
+          <t>Cailler Schoggi Branchli Cake 5.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>6010377</t>
+          <t>4967195</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Cailler Schoggi Branchli Cake</t>
+          <t>Bonne Maman Financier Mandeln</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/cailler-schoggi-branchli-cake/p/6010377</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E299" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Cailler</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>3.14/100g</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21653,7 +21653,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -21668,13 +21668,13 @@
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>Cailler Schoggi Branchli Cake 5.80 Schweizer Franken</t>
+          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -21743,7 +21743,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -21812,7 +21812,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -21881,7 +21881,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -21954,28 +21954,28 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>6313852</t>
+          <t>6313768</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Guezli Fruits</t>
+          <t>Roland Petite Pause Choco Céréales</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-guezli-fruits/p/6313852</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-choco-cereales/p/6313768</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E304" t="n">
         <v>4.5</v>
@@ -22012,39 +22012,39 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Guezli Fruits 2.80 Schweizer Franken</t>
+          <t>Roland Petite Pause Choco Céréales 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>6313768</t>
+          <t>6313852</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Choco Céréales</t>
+          <t>Roland Petite Pause Guezli Fruits</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-choco-cereales/p/6313768</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-guezli-fruits/p/6313852</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E305" t="n">
         <v>4.5</v>
@@ -22081,18 +22081,18 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Choco Céréales 2.80 Schweizer Franken</t>
+          <t>Roland Petite Pause Guezli Fruits 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -22165,45 +22165,45 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>5732888</t>
+          <t>3040399</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g</t>
+          <t>Dèlifrance Frischback Baguettes Classique 2 Stück</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-classique-2-stueck/p/3040399</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="E307" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Délifrance</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>1.82/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22213,7 +22213,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -22223,60 +22223,56 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g 4.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N307" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Dèlifrance Frischback Baguettes Classique 2 Stück 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>3040399</t>
+          <t>5621833</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Dèlifrance Frischback Baguettes Classique 2 Stück</t>
+          <t>Mini Chococremecake</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-classique-2-stueck/p/3040399</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mini-chococremecake/p/5621833</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="E308" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Délifrance</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>2.55/100g</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22286,7 +22282,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -22296,35 +22292,35 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>Dèlifrance Frischback Baguettes Classique 2 Stück 1.95 Schweizer Franken</t>
+          <t>Mini Chococremecake 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>5621833</t>
+          <t>5732888</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Mini Chococremecake</t>
+          <t>Schär Panini Rolls glutenfrei 3x75g</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mini-chococremecake/p/5621833</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -22335,17 +22331,17 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>2.55/100g</t>
+          <t>1.82/100g</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22355,7 +22351,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -22365,18 +22361,22 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>Mini Chococremecake 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N309" t="inlineStr"/>
+          <t>Schär Panini Rolls glutenfrei 3x75g 4.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -22445,7 +22445,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -22514,7 +22514,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -22583,7 +22583,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -22652,7 +22652,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -22721,7 +22721,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -22790,7 +22790,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -22859,7 +22859,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -22928,7 +22928,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -23001,7 +23001,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -23070,7 +23070,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -23143,7 +23143,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -23216,7 +23216,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -23289,7 +23289,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -23358,7 +23358,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -23425,45 +23425,45 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>6581130</t>
+          <t>6345853</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Dona Pita Brot</t>
+          <t>Indian Delight Pappadums</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E325" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Dona</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>0.57/100g</t>
+          <t>3.60/100g</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23473,7 +23473,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -23483,56 +23483,56 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
+          <t>Indian Delight Pappadums 20% ab 2 Aktion 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>6345853</t>
+          <t>7028474</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums</t>
+          <t>Le Pain des fleurs Bio Quinoa</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E326" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>3.60/100g</t>
+          <t>2.93/100g</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23542,7 +23542,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -23552,56 +23552,60 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums 20% ab 2 Aktion 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N326" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Quinoa 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>7028474</t>
+          <t>6581130</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa</t>
+          <t>Dona Pita Brot</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E327" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Dona</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>2.93/100g</t>
+          <t>0.57/100g</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23611,7 +23615,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -23621,60 +23625,56 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N327" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>6668612</t>
+          <t>6150312</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block</t>
+          <t>St.Michel Brownies blanc Mini</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E328" t="n">
         <v>5</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>0.35/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23684,7 +23684,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -23694,43 +23694,39 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N328" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>5910015</t>
+          <t>6668612</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam</t>
+          <t>Prix Garantie Kuchenteig Block</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E329" t="n">
         <v>5</v>
@@ -23742,12 +23738,12 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>1.51/100g</t>
+          <t>0.35/100g</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -23757,7 +23753,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -23767,56 +23763,60 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam 3.45 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N329" t="inlineStr"/>
+          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>6729458</t>
+          <t>5910015</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Roland Sport High Protein Choco</t>
+          <t>Country Cracker Sesam</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-sport-high-protein-choco/p/6729458</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
         </is>
       </c>
       <c r="D330" t="n">
         <v>4</v>
       </c>
       <c r="E330" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>3.56/100g</t>
+          <t>1.51/100g</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -23826,7 +23826,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -23836,56 +23836,56 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>Roland Sport High Protein Choco 4.80 Schweizer Franken</t>
+          <t>Country Cracker Sesam 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>6150312</t>
+          <t>6729458</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini</t>
+          <t>Roland Sport High Protein Choco</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-sport-high-protein-choco/p/6729458</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E331" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>3.56/100g</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -23895,7 +23895,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -23905,18 +23905,18 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
+          <t>Roland Sport High Protein Choco 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -23985,7 +23985,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -24054,7 +24054,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -24123,7 +24123,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -24192,7 +24192,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -24261,7 +24261,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -24330,7 +24330,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -24399,7 +24399,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -24468,7 +24468,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -24537,7 +24537,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -24604,45 +24604,45 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>6533663</t>
+          <t>6967944</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers</t>
+          <t>St. Michel Galettes Mou Choco Blanc</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E342" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>5.50/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24652,7 +24652,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -24662,56 +24662,56 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
+          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>6967944</t>
+          <t>6558121</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc</t>
+          <t>Country Cracker Dinkel</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
         </is>
       </c>
       <c r="D343" t="n">
         <v>2</v>
       </c>
       <c r="E343" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -24721,7 +24721,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -24731,39 +24731,39 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
+          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>6558121</t>
+          <t>6533663</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel</t>
+          <t>Fine Food Sesame Rice Crackers</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E344" t="n">
         <v>5</v>
@@ -24775,12 +24775,12 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>5.50/100g</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -24790,7 +24790,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -24805,30 +24805,30 @@
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
+          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>6834497</t>
+          <t>7038595</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig</t>
+          <t>Riduto Crisp Bread Kräuter</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
         </is>
       </c>
       <c r="D345" t="inlineStr"/>
@@ -24837,7 +24837,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Eclair</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -24867,39 +24867,35 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N345" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Riduto Crisp Bread Kräuter 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>7038595</t>
+          <t>6834497</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter</t>
+          <t>Quicook Blätterteig</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
         </is>
       </c>
       <c r="D346" t="inlineStr"/>
@@ -24908,7 +24904,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Eclair</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -24938,56 +24934,60 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N346" t="inlineStr"/>
+          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>6579811</t>
+          <t>4234829</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas</t>
+          <t>Schär Wraps glutenfrei 2x80g</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E347" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>INES ROSALES</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>2.56/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -24997,7 +24997,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25007,56 +25007,60 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N347" t="inlineStr"/>
+          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>4234829</t>
+          <t>6579811</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g</t>
+          <t>Ines Rosales Süsse Tortas</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E348" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>INES ROSALES</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>2.56/100g</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25066,7 +25070,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25076,22 +25080,18 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N348" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -25164,7 +25164,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -25233,7 +25233,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -25302,7 +25302,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -25371,7 +25371,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -25440,7 +25440,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -25509,35 +25509,33 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>6980179</t>
+          <t>7038624</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth</t>
+          <t>Riduto Crisp Bread Rande</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
-        </is>
-      </c>
-      <c r="D355" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr"/>
       <c r="E355" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -25547,7 +25545,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25557,7 +25555,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -25567,48 +25565,46 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N355" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>7038624</t>
+          <t>6980179</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande</t>
+          <t>Karma Saaten Cracker Amaranth</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>2</v>
+      </c>
       <c r="E356" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -25618,7 +25614,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25628,7 +25624,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -25638,18 +25634,22 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N356" t="inlineStr"/>
+          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -25718,45 +25718,45 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>3040214</t>
+          <t>6857773</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte</t>
+          <t>Dar-Vida Choco au lait</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E358" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>3.80/100g</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -25766,7 +25766,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -25776,56 +25776,56 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
+          <t>Dar-Vida Choco au lait 1.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>6857773</t>
+          <t>3040214</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait</t>
+          <t>Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E359" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>3.80/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -25835,7 +25835,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -25845,56 +25845,56 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait 1.75 Schweizer Franken</t>
+          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>6989654</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Bauckhof Brownies Backmischung</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E360" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Bauckhof</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25904,7 +25904,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25914,56 +25914,60 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N360" t="inlineStr"/>
+          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>6989654</t>
+          <t>6775942</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E361" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Bauckhof</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -25973,7 +25977,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -25983,60 +25987,56 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N361" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>5803198</t>
+          <t>6609039</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
+          <t>Vergani Panettone vegan</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E362" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26046,7 +26046,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -26056,60 +26056,60 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
+          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>6609039</t>
+          <t>5803198</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E363" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26119,7 +26119,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -26129,46 +26129,46 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>6151984</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E364" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
@@ -26177,12 +26177,12 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26192,7 +26192,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -26207,37 +26207,37 @@
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>6151984</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E365" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
@@ -26246,12 +26246,12 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26261,7 +26261,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -26276,13 +26276,13 @@
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -26355,7 +26355,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -26422,7 +26422,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -26495,7 +26495,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -26568,7 +26568,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -26639,7 +26639,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -26712,7 +26712,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -26785,45 +26785,45 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>4145231</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E373" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -26833,7 +26833,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26843,46 +26843,42 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N373" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>6877281</t>
+          <t>4145231</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Nussweggli</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E374" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
@@ -26891,12 +26887,12 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -26906,7 +26902,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -26916,56 +26912,60 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>Nussweggli 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N374" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N374" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>4967215</t>
+          <t>6472912</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -26975,7 +26975,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -26990,41 +26990,45 @@
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N375" t="inlineStr"/>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N375" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>5804223</t>
+          <t>6877281</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
+          <t>Nussweggli</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="E376" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -27034,7 +27038,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27044,7 +27048,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -27054,60 +27058,56 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N376" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Nussweggli 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>6472912</t>
+          <t>5804223</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E377" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27117,7 +27117,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -27127,22 +27127,22 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>['vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -27215,7 +27215,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -27286,7 +27286,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -27359,45 +27359,45 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>6828459</t>
+          <t>6729401</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Aprikosenweggli</t>
+          <t>Roland Sport Plus Nature</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
         </is>
       </c>
       <c r="D381" t="n">
         <v>3</v>
       </c>
       <c r="E381" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27407,7 +27407,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -27417,56 +27417,56 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
+          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>6729401</t>
+          <t>6828459</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature</t>
+          <t>Aprikosenweggli</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
         </is>
       </c>
       <c r="D382" t="n">
         <v>3</v>
       </c>
       <c r="E382" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>3.20/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27476,7 +27476,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -27486,18 +27486,18 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
+          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -27564,7 +27564,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -27633,45 +27633,43 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>7091314</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>High Protein Cräcker BBQ</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
-        </is>
-      </c>
-      <c r="D385" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr"/>
       <c r="E385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -27681,7 +27679,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -27691,44 +27689,42 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N385" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>7091314</t>
+          <t>7091313</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
-        </is>
-      </c>
-      <c r="D386" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>1</v>
+      </c>
       <c r="E386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
@@ -27767,30 +27763,30 @@
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>7091313</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
         </is>
       </c>
       <c r="D387" t="n">
@@ -27801,17 +27797,17 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -27821,7 +27817,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27831,18 +27827,22 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N387" t="inlineStr"/>
+          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -27909,7 +27909,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -27976,7 +27976,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -28045,7 +28045,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -28114,7 +28114,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -28183,7 +28183,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -28250,7 +28250,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
@@ -28319,7 +28319,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-22 06:49:09</t>
+          <t>2023-01-22 12:55:02</t>
         </is>
       </c>
     </row>
